--- a/Config/Excel/ToolData.xlsx
+++ b/Config/Excel/ToolData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A4D82A-F5E9-469E-BDD1-C3D33BFCD37B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A612F4-29C0-4218-9CF3-38D2526055B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1440" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="1275" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>int</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>GetPrefabPath</t>
+  </si>
+  <si>
+    <t>Clean3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -639,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,7 +843,7 @@
         <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -987,7 +995,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>

--- a/Config/Excel/ToolData.xlsx
+++ b/Config/Excel/ToolData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A612F4-29C0-4218-9CF3-38D2526055B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549AEDBA-B7B2-4ED4-BA87-5C29564DE0F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1275" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="1" r:id="rId1"/>
@@ -647,27 +647,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="35.625" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.21875" customWidth="1"/>
     <col min="14" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -817,7 +817,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -855,7 +855,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -904,7 +904,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -931,7 +931,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -980,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1007,7 +1007,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1027,7 +1027,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1047,7 +1047,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1067,7 +1067,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1087,7 +1087,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1107,7 +1107,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1127,7 +1127,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>

--- a/Config/Excel/ToolData.xlsx
+++ b/Config/Excel/ToolData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549AEDBA-B7B2-4ED4-BA87-5C29564DE0F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549EE46-37C0-4E93-BF46-BF1C8D0D71EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="1305" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>int</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -181,14 +181,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GetPrefabPath</t>
-  </si>
-  <si>
     <t>Clean3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Clean2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolIcons/Gloves</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolIcons/Broom</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolIcons/Shovel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolIcons/Mop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolIcons/Rag</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -648,26 +665,26 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="21.25" customWidth="1"/>
     <col min="14" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -705,7 +722,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -741,7 +758,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +794,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -797,7 +814,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -817,7 +834,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -840,10 +857,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -855,7 +872,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -878,7 +895,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>39</v>
@@ -893,7 +910,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -916,7 +933,7 @@
         <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>39</v>
@@ -931,7 +948,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -954,7 +971,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>39</v>
@@ -969,7 +986,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -992,10 +1009,10 @@
         <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1007,7 +1024,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1027,7 +1044,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1047,7 +1064,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1067,7 +1084,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1087,7 +1104,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1107,7 +1124,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1127,7 +1144,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>

--- a/Config/Excel/ToolData.xlsx
+++ b/Config/Excel/ToolData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Biggerlab_Ryan_Git\the-janitor-simulator\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blcode\the-janitor-simulator\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549EE46-37C0-4E93-BF46-BF1C8D0D71EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347A40BA-4900-4826-8584-F55C79C490DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1305" windowWidth="25110" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="1" r:id="rId1"/>
@@ -668,23 +668,23 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="35.625" customWidth="1"/>
-    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.21875" customWidth="1"/>
     <col min="14" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -814,7 +814,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -834,7 +834,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1001</v>
       </c>
@@ -872,7 +872,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1004</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1044,7 +1044,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1064,7 +1064,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1084,7 +1084,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1124,7 +1124,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1144,7 +1144,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
